--- a/config/diff.xlsx
+++ b/config/diff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>_</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>ОМД: "HM" (замок) - Гамбург, Германия</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ОМД: "I" - Бомбей</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +781,12 @@
       <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>

--- a/config/diff.xlsx
+++ b/config/diff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>_</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>ОМД: "I" - Бомбей</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ОМД: "S" - Сан-Франциско</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>ОМД: "W" - Вест-Поинт</t>
+  </si>
+  <si>
+    <t>Толстые лучи, выпуклая звезда /Герб образца 1995 года/</t>
+  </si>
+  <si>
+    <t>Тонкие лучи, звезда плоская /Герб образца 2020 года/</t>
   </si>
 </sst>
 </file>
@@ -218,13 +242,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,17 +537,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -529,10 +569,20 @@
       <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2397,5 +2447,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/diff.xlsx
+++ b/config/diff.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>_</t>
   </si>
@@ -193,12 +193,15 @@
   </si>
   <si>
     <t>Тонкие лучи, звезда плоская /Герб образца 2020 года/</t>
+  </si>
+  <si>
+    <t>73 внутри звезды</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -350,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,189 +540,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
+      <c r="A1" s="1">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+      <c r="A6" s="1">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+      <c r="A7" s="1">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -818,83 +956,53 @@
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>35</v>
-      </c>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
@@ -944,183 +1052,148 @@
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>80</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>79</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>78</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>71</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>75</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -1219,57 +1292,52 @@
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>10</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -1320,57 +1388,52 @@
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
@@ -1469,115 +1532,100 @@
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
@@ -1724,68 +1772,53 @@
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>41</v>
-      </c>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
@@ -1931,110 +1964,100 @@
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
@@ -2085,58 +2108,53 @@
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
@@ -2186,110 +2204,100 @@
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
@@ -2446,6 +2454,9 @@
       <c r="A579" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A1:B579">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
